--- a/lib/SeleniumEasyTestData.xlsx
+++ b/lib/SeleniumEasyTestData.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14865" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14865" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="filedownload" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>firstname</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>California</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>C:\\Users\\dell\\Downloads\\easyinfo.txt</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>selenium is functional testing tool</t>
   </si>
 </sst>
 </file>
@@ -405,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,12 +492,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
